--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/payPassword/SettingPayPwdExc.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/payPassword/SettingPayPwdExc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="5220" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pictureVerification</t>
   </si>
   <si>
@@ -81,10 +77,6 @@
   </si>
   <si>
     <t>environment</t>
-  </si>
-  <si>
-    <t>sit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>payPassword</t>
@@ -131,6 +123,14 @@
   </si>
   <si>
     <t>payPwd_error</t>
+  </si>
+  <si>
+    <t>${EnvUtils.getEnv()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${MobileUtil.getUnRegisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -483,14 +483,14 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="31.1640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
@@ -505,34 +505,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -546,22 +546,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -570,10 +570,10 @@
         <v>987777777</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
         <v>6</v>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/payPassword/SettingPayPwdExc.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/payPassword/SettingPayPwdExc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,7 +109,22 @@
     <t>testcaseDescription</t>
   </si>
   <si>
-    <t>设置支付密码</t>
+    <t>payPwd_error</t>
+  </si>
+  <si>
+    <t>${EnvUtils.getEnv()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${MobileUtil.getUnRegisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>987777777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置支付密码-异常</t>
     <rPh sb="0" eb="1">
       <t>she'zh</t>
     </rPh>
@@ -119,17 +134,9 @@
     <rPh sb="4" eb="5">
       <t>mi'm</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPwd_error</t>
-  </si>
-  <si>
-    <t>${EnvUtils.getEnv()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${MobileUtil.getUnRegisterMobile()}</t>
+    <rPh sb="7" eb="8">
+      <t>yi'ch</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +490,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -526,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -546,16 +553,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -566,8 +573,8 @@
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1">
-        <v>987777777</v>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
